--- a/server/logic/Data/Data_Definition and WorkFlow.xlsx
+++ b/server/logic/Data/Data_Definition and WorkFlow.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\Logsync\server\logic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8758C08F-F4EB-4DB5-A9A8-22A2774E4B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE308ADD-8D7B-4518-932C-F94444FD24AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B0D6DFD-1802-4274-8674-BFD1701C9C6A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8B0D6DFD-1802-4274-8674-BFD1701C9C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="4" r:id="rId1"/>
     <sheet name="Data Definition" sheetId="5" r:id="rId2"/>
-    <sheet name="UserFlow - WorkFlow" sheetId="6" r:id="rId3"/>
-    <sheet name="GenAi cases and Keywords" sheetId="7" r:id="rId4"/>
+    <sheet name="Contracts" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="UserFlow - WorkFlow" sheetId="6" r:id="rId5"/>
+    <sheet name="GenAi cases and Keywords" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="238">
   <si>
     <t>KPI/KRA</t>
   </si>
@@ -524,12 +526,258 @@
   <si>
     <t>Buyer</t>
   </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>13-01-2024</t>
+  </si>
+  <si>
+    <t>Onboarded On</t>
+  </si>
+  <si>
+    <t>31-03-2024</t>
+  </si>
+  <si>
+    <t>Battery Manufacturing Inc.</t>
+  </si>
+  <si>
+    <t>ship from</t>
+  </si>
+  <si>
+    <t>500 Energy Way, Innovation City, Techstate, 12345, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship to </t>
+  </si>
+  <si>
+    <t>Gizmo Electronics</t>
+  </si>
+  <si>
+    <t>{807912:500, 805234:400}</t>
+  </si>
+  <si>
+    <t>{807912:10, 805234:15}</t>
+  </si>
+  <si>
+    <t>{807912:5, 805234:10}</t>
+  </si>
+  <si>
+    <t>100 Consumer Rd, Retail City, Shoppington, 23456, USA</t>
+  </si>
+  <si>
+    <t>Dict : {Material Number : Total Qty}</t>
+  </si>
+  <si>
+    <t>Dict : {Material Number : Per Order Qty}</t>
+  </si>
+  <si>
+    <t>Dict : {Material Number : Min Order Qty}</t>
+  </si>
+  <si>
+    <t>Ship to</t>
+  </si>
+  <si>
+    <t>Ship from</t>
+  </si>
+  <si>
+    <t>20-02-2024</t>
+  </si>
+  <si>
+    <t>20-02-2023</t>
+  </si>
+  <si>
+    <t>20-02-2025</t>
+  </si>
+  <si>
+    <t>New Electronics Inc.</t>
+  </si>
+  <si>
+    <t>{801236:450, 802985:350}</t>
+  </si>
+  <si>
+    <t>{801236:8, 802985:12}</t>
+  </si>
+  <si>
+    <t>{801236:4, 802985:8}</t>
+  </si>
+  <si>
+    <t>500 Main St, Tech Hub, Innoville, 54321, USA</t>
+  </si>
+  <si>
+    <t>15-04-2022</t>
+  </si>
+  <si>
+    <t>Bright Ideas Corp.</t>
+  </si>
+  <si>
+    <t>{803490:600, 803761:300}</t>
+  </si>
+  <si>
+    <t>{803490:12, 803761:10}</t>
+  </si>
+  <si>
+    <t>{803490:6, 803761:5}</t>
+  </si>
+  <si>
+    <t>200 Energy Blvd, Innovation Center, Powerstate, 34567, USA</t>
+  </si>
+  <si>
+    <t>15-03-2022</t>
+  </si>
+  <si>
+    <t>25-04-2022</t>
+  </si>
+  <si>
+    <t>15-03-2025</t>
+  </si>
+  <si>
+    <t>Volt Solutions Inc.</t>
+  </si>
+  <si>
+    <t>{803761:550, 804567:200}</t>
+  </si>
+  <si>
+    <t>{803761:11, 804567:8}</t>
+  </si>
+  <si>
+    <t>{803761:5, 804567:4}</t>
+  </si>
+  <si>
+    <t>300 Power Ave, Energy Village, Electroncity, 78901, USA</t>
+  </si>
+  <si>
+    <t>25-03-2023</t>
+  </si>
+  <si>
+    <t>25-03-2025</t>
+  </si>
+  <si>
+    <t>Green Tech Corp.</t>
+  </si>
+  <si>
+    <t>{805198:700, 805234:450}</t>
+  </si>
+  <si>
+    <t>{805198:14, 805234:15}</t>
+  </si>
+  <si>
+    <t>{805198:7, 805234:8}</t>
+  </si>
+  <si>
+    <t>400 Electric Dr, Power Plaza, Ampcity, 23456, USA</t>
+  </si>
+  <si>
+    <t>20-05-2023</t>
+  </si>
+  <si>
+    <t>Energy Systems Ltd.</t>
+  </si>
+  <si>
+    <t>{806754:400, 807912:350}</t>
+  </si>
+  <si>
+    <t>{806754:8, 807912:10}</t>
+  </si>
+  <si>
+    <t>{806754:4, 807912:5}</t>
+  </si>
+  <si>
+    <t>300 Battery Blvd, Energy Park, Powercity, 34567, USA</t>
+  </si>
+  <si>
+    <t>20-04-2022</t>
+  </si>
+  <si>
+    <t>30-05-2022</t>
+  </si>
+  <si>
+    <t>20-04-2025</t>
+  </si>
+  <si>
+    <t>ElectroTech Inc.</t>
+  </si>
+  <si>
+    <t>{804289:600, 809365:250}</t>
+  </si>
+  <si>
+    <t>{804289:12, 809365:8}</t>
+  </si>
+  <si>
+    <t>{804289:6, 809365:4}</t>
+  </si>
+  <si>
+    <t>200 Power Dr, Volt Center, Electropolis, 45678, USA</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t>PowerTech Solutions</t>
+  </si>
+  <si>
+    <t>{806123:750, 802985:400}</t>
+  </si>
+  <si>
+    <t>{806123:15, 802985:10}</t>
+  </si>
+  <si>
+    <t>{806123:7, 802985:5}</t>
+  </si>
+  <si>
+    <t>400 Battery Ave, Power District, Cellville, 56789, USA</t>
+  </si>
+  <si>
+    <t>15-05-2022</t>
+  </si>
+  <si>
+    <t>25-06-2022</t>
+  </si>
+  <si>
+    <t>15-05-2025</t>
+  </si>
+  <si>
+    <t>Current Tech Inc.</t>
+  </si>
+  <si>
+    <t>{802563:500, 801348:350}</t>
+  </si>
+  <si>
+    <t>{802563:10, 801348:8}</t>
+  </si>
+  <si>
+    <t>{802563:5, 801348:4}</t>
+  </si>
+  <si>
+    <t>300 Current Ave, Energy Zone, Powerville, 67890, USA</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>25-05-2026</t>
+  </si>
+  <si>
+    <t>PowerCell Inc.</t>
+  </si>
+  <si>
+    <t>{809874:800, 808765:500}</t>
+  </si>
+  <si>
+    <t>{809874:16, 808765:10}</t>
+  </si>
+  <si>
+    <t>{809874:8, 808765:5}</t>
+  </si>
+  <si>
+    <t>500 Battery Rd, Power Land, Currentcity, 23456, USA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +797,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,9 +1061,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -858,6 +1109,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D152C22-23D3-4116-9895-13746556F4A6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,46 +1676,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1478,37 +1734,37 @@
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1516,25 +1772,25 @@
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1550,16 +1806,16 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="19"/>
@@ -1607,31 +1863,31 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>106</v>
       </c>
       <c r="J13" s="19"/>
@@ -1648,31 +1904,31 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="19"/>
@@ -1689,94 +1945,94 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="39" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1786,11 +2042,738 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ECEFE1-38D0-4507-9FF1-6B43F491EC08}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="40">
+        <v>45627</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="40">
+        <v>46357</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="40">
+        <v>45202</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="41">
+        <v>44684</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="41">
+        <v>45780</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="41">
+        <v>45051</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="41">
+        <v>45203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="41">
+        <v>46299</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" t="s">
+        <v>216</v>
+      </c>
+      <c r="O10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="41">
+        <v>45051</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="41">
+        <v>46147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" t="s">
+        <v>222</v>
+      </c>
+      <c r="O11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12">
+        <v>97</v>
+      </c>
+      <c r="M12" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" t="s">
+        <v>230</v>
+      </c>
+      <c r="O12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="41">
+        <v>45053</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE6D92A-1265-4D9F-ADDF-7815C2F82E5D}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC3DB30-BD13-4422-9494-85BDD565A26D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,22 +2785,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="21" t="s">
         <v>121</v>
       </c>
@@ -1825,12 +2808,12 @@
         <v>74</v>
       </c>
       <c r="D2" s="21"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -1842,25 +2825,25 @@
       <c r="D3" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1870,12 +2853,12 @@
         <v>128</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1885,12 +2868,12 @@
         <v>125</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>3.1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1900,12 +2883,12 @@
         <v>127</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1915,27 +2898,27 @@
         <v>72</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1945,22 +2928,22 @@
         <v>73</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>6.1</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1969,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE457A27-6897-4919-8804-37E8D34A24BE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
